--- a/Assets/Excels/Bullet.xlsx
+++ b/Assets/Excels/Bullet.xlsx
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>

--- a/Assets/Excels/Bullet.xlsx
+++ b/Assets/Excels/Bullet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>//ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,26 @@
   </si>
   <si>
     <t>"Prefab/Effect/hero_001_skill4_loop"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageCheckId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害检测Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitNotDispose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中后消失</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +508,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -499,6 +519,7 @@
     <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="21.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -515,8 +536,12 @@
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -534,8 +559,12 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -553,7 +582,12 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
@@ -571,7 +605,9 @@
       <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">

--- a/Assets/Excels/Bullet.xlsx
+++ b/Assets/Excels/Bullet.xlsx
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,9 +39,38 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1. 固定点
-2. 直线移动
+1 固定点
+2 锁定目标
+3 直线
+4 往返子弹
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1. 定点 无参数
+2. 锁定目标
+3. 直线 击中后是否销毁（1销毁），最大移动距离
+4. 往返 返回点（1返回entity,2直线反向），返回时机(1 到达最远距离, 2击中目标)，最远距离，距离额外偏移，返回时替换的damageCheckerId</t>
         </r>
       </text>
     </comment>
@@ -50,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>//ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>moveType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lifeTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移动方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运行时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,11 +141,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hitNotDispose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中后消失</t>
+    <t>bulletType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>argList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;float&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float参数列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,20,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,33 +551,33 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="5" width="21.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -548,19 +585,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -571,44 +608,46 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
       <c r="E4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -616,7 +655,6 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
@@ -624,7 +662,6 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -632,7 +669,6 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
@@ -640,7 +676,6 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -648,7 +683,6 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
@@ -656,7 +690,6 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
@@ -664,7 +697,6 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -672,7 +704,6 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -680,7 +711,6 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -688,7 +718,6 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
@@ -696,7 +725,6 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
@@ -704,7 +732,6 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Excels/Bullet.xlsx
+++ b/Assets/Excels/Bullet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -74,12 +74,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+主要负责子弹弹射，或者击中后创建子弹
+type arg0, arg1,…
+1 创建子子弹  子弹id,子弹角度偏移，子弹位置偏移，子弹深度（最多创建多少代，0不限制，子子弹可以使本身）
+2 弹射子弹  子弹传递最大次数，检测范围</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>//ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,13 +189,29 @@
   </si>
   <si>
     <t>1,2,20,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onHitActions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中后处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;List&lt;string&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,-30,2),(1,1,30,2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,7 +299,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -331,6 +374,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -366,6 +426,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -542,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -557,9 +634,10 @@
     <col min="5" max="5" width="21.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.75" customWidth="1"/>
     <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,8 +657,11 @@
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -602,8 +683,11 @@
       <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -625,8 +709,11 @@
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -648,85 +735,88 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/Assets/Excels/Bullet.xlsx
+++ b/Assets/Excels/Bullet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -204,14 +204,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1,1,-30,2),(1,1,30,2)</t>
+    <t>{1,1,-30,,2},{1,1,30,(10,0,10),2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -374,23 +374,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -426,23 +409,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excels/Bullet.xlsx
+++ b/Assets/Excels/Bullet.xlsx
@@ -204,7 +204,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1,1,-30,,2},{1,1,30,(10,0,10),2}</t>
+    <t>{1,1,-30,,2},{1,1,30,,2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +588,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Assets/Excels/Bullet.xlsx
+++ b/Assets/Excels/Bullet.xlsx
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,20,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>onHitActions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +201,10 @@
   </si>
   <si>
     <t>{1,1,-30,,2},{1,1,30,,2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,20,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -624,7 +624,7 @@
         <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -650,7 +650,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -676,7 +676,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -699,10 +699,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">

--- a/Assets/Excels/Bullet.xlsx
+++ b/Assets/Excels/Bullet.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>//ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,10 +197,6 @@
   </si>
   <si>
     <t>List&lt;List&lt;string&gt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1,1,-30,,2},{1,1,30,,2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -588,7 +584,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -699,9 +695,6 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
         <v>23</v>
       </c>
     </row>
